--- a/src/SampleData.xlsx
+++ b/src/SampleData.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\HTML introduction\chicago10cucumberjunit\src\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{039C4103-1C72-4755-8CFA-9EA8B0E16E7D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E91B4BBC-0CAB-4679-ADAE-F52EB66CFEC2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6850" xr2:uid="{E2C47252-B05F-447B-A90A-E3BA81F2C8FD}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>FirstName</t>
   </si>
@@ -94,12 +94,19 @@
   </si>
   <si>
     <t>Scrum Master</t>
+  </si>
+  <si>
+    <t>OBAMA</t>
+  </si>
+  <si>
+    <t>PRESIDENT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -455,13 +462,13 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="10.453125" customWidth="1"/>
-    <col min="3" max="3" width="13.453125" customWidth="1"/>
+    <col min="2" max="2" customWidth="true" width="10.453125" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="13.453125" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
@@ -521,13 +528,13 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
